--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H2">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I2">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J2">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>2.141623433941</v>
+        <v>14.33528467284889</v>
       </c>
       <c r="R2">
-        <v>19.274610905469</v>
+        <v>129.01756205564</v>
       </c>
       <c r="S2">
-        <v>0.0006392098453021278</v>
+        <v>0.003746699531025771</v>
       </c>
       <c r="T2">
-        <v>0.0006392098453021281</v>
+        <v>0.003746699531025772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H3">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I3">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J3">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>3.290184024002667</v>
+        <v>11.80520338655111</v>
       </c>
       <c r="R3">
-        <v>29.611656216024</v>
+        <v>106.24683047896</v>
       </c>
       <c r="S3">
-        <v>0.0009820204559156016</v>
+        <v>0.003085432274381533</v>
       </c>
       <c r="T3">
-        <v>0.0009820204559156018</v>
+        <v>0.003085432274381534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H4">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I4">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J4">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>1.644081953330667</v>
+        <v>6.810795603088889</v>
       </c>
       <c r="R4">
-        <v>14.796737579976</v>
+        <v>61.2971604278</v>
       </c>
       <c r="S4">
-        <v>0.0004907087559826672</v>
+        <v>0.001780083568227757</v>
       </c>
       <c r="T4">
-        <v>0.0004907087559826672</v>
+        <v>0.001780083568227757</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H5">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I5">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J5">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>2.616848628641667</v>
+        <v>6.884043459621112</v>
       </c>
       <c r="R5">
-        <v>23.551637657775</v>
+        <v>61.95639113659001</v>
       </c>
       <c r="S5">
-        <v>0.0007810501979869573</v>
+        <v>0.001799227778892628</v>
       </c>
       <c r="T5">
-        <v>0.0007810501979869575</v>
+        <v>0.001799227778892629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H6">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I6">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J6">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>1.314499941626</v>
+        <v>5.185277941674444</v>
       </c>
       <c r="R6">
-        <v>11.830499474634</v>
+        <v>46.66750147507</v>
       </c>
       <c r="S6">
-        <v>0.0003923384900538773</v>
+        <v>0.001355234923873263</v>
       </c>
       <c r="T6">
-        <v>0.0003923384900538774</v>
+        <v>0.001355234923873263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H7">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I7">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J7">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>1.725638460403333</v>
+        <v>8.675417840367778</v>
       </c>
       <c r="R7">
-        <v>15.53074614363</v>
+        <v>78.07876056331</v>
       </c>
       <c r="S7">
-        <v>0.0005150509075687509</v>
+        <v>0.002267425077056312</v>
       </c>
       <c r="T7">
-        <v>0.000515050907568751</v>
+        <v>0.002267425077056313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H8">
         <v>16.449865</v>
       </c>
       <c r="I8">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J8">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>519.8149169900383</v>
+        <v>969.7474918983978</v>
       </c>
       <c r="R8">
-        <v>4678.334252910346</v>
+        <v>8727.72742708558</v>
       </c>
       <c r="S8">
-        <v>0.1551490366649091</v>
+        <v>0.2534552020435796</v>
       </c>
       <c r="T8">
-        <v>0.1551490366649092</v>
+        <v>0.2534552020435796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H9">
         <v>16.449865</v>
       </c>
       <c r="I9">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J9">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>798.5935847609022</v>
+        <v>798.5935847609021</v>
       </c>
       <c r="R9">
-        <v>7187.342262848121</v>
+        <v>7187.342262848119</v>
       </c>
       <c r="S9">
-        <v>0.2383560404150635</v>
+        <v>0.2087220643180457</v>
       </c>
       <c r="T9">
-        <v>0.2383560404150636</v>
+        <v>0.2087220643180458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H10">
         <v>16.449865</v>
       </c>
       <c r="I10">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J10">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>399.0516309035423</v>
+        <v>460.7339236476778</v>
       </c>
       <c r="R10">
-        <v>3591.464678131881</v>
+        <v>4146.6053128291</v>
       </c>
       <c r="S10">
-        <v>0.1191048469188735</v>
+        <v>0.120418367339988</v>
       </c>
       <c r="T10">
-        <v>0.1191048469188736</v>
+        <v>0.120418367339988</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H11">
         <v>16.449865</v>
       </c>
       <c r="I11">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J11">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>635.1615933570973</v>
+        <v>465.6889647773173</v>
       </c>
       <c r="R11">
-        <v>5716.454340213876</v>
+        <v>4191.200682995855</v>
       </c>
       <c r="S11">
-        <v>0.1895765321751836</v>
+        <v>0.1217134270964082</v>
       </c>
       <c r="T11">
-        <v>0.1895765321751837</v>
+        <v>0.1217134270964082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H12">
         <v>16.449865</v>
       </c>
       <c r="I12">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J12">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>319.0554731567967</v>
+        <v>350.7715677428239</v>
       </c>
       <c r="R12">
-        <v>2871.49925841117</v>
+        <v>3156.944109685415</v>
       </c>
       <c r="S12">
-        <v>0.09522841243105845</v>
+        <v>0.09167837949171546</v>
       </c>
       <c r="T12">
-        <v>0.09522841243105848</v>
+        <v>0.09167837949171548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H13">
         <v>16.449865</v>
       </c>
       <c r="I13">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J13">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>418.8470292364612</v>
+        <v>586.8711283984105</v>
       </c>
       <c r="R13">
-        <v>3769.623263128151</v>
+        <v>5281.840155585695</v>
       </c>
       <c r="S13">
-        <v>0.125013174828227</v>
+        <v>0.1533858470008263</v>
       </c>
       <c r="T13">
-        <v>0.1250131748282271</v>
+        <v>0.1533858470008263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H14">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I14">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J14">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>31.384912671315</v>
+        <v>37.37791215950622</v>
       </c>
       <c r="R14">
-        <v>282.464214041835</v>
+        <v>336.401209435556</v>
       </c>
       <c r="S14">
-        <v>0.009367447542603201</v>
+        <v>0.009769168115927842</v>
       </c>
       <c r="T14">
-        <v>0.009367447542603206</v>
+        <v>0.009769168115927844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H15">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I15">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J15">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>48.21675773123999</v>
+        <v>30.78096216975378</v>
       </c>
       <c r="R15">
-        <v>433.95081958116</v>
+        <v>277.028659527784</v>
       </c>
       <c r="S15">
-        <v>0.01439124439988042</v>
+        <v>0.008044975677697458</v>
       </c>
       <c r="T15">
-        <v>0.01439124439988043</v>
+        <v>0.00804497567769746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H16">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I16">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J16">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>24.09357672876</v>
+        <v>17.75851164440223</v>
       </c>
       <c r="R16">
-        <v>216.84219055884</v>
+        <v>159.82660479962</v>
       </c>
       <c r="S16">
-        <v>0.007191204209614522</v>
+        <v>0.004641401183739078</v>
       </c>
       <c r="T16">
-        <v>0.007191204209614524</v>
+        <v>0.004641401183739079</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H17">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I17">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J17">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>38.349209474625</v>
+        <v>17.94949857000678</v>
       </c>
       <c r="R17">
-        <v>345.142885271625</v>
+        <v>161.545487130061</v>
       </c>
       <c r="S17">
-        <v>0.01144607958021123</v>
+        <v>0.004691317920024752</v>
       </c>
       <c r="T17">
-        <v>0.01144607958021124</v>
+        <v>0.004691317920024753</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H18">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I18">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J18">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>19.26364141359</v>
+        <v>13.52012658622811</v>
       </c>
       <c r="R18">
-        <v>173.37277272231</v>
+        <v>121.681139276053</v>
       </c>
       <c r="S18">
-        <v>0.005749614546044305</v>
+        <v>0.003533648134380784</v>
       </c>
       <c r="T18">
-        <v>0.005749614546044306</v>
+        <v>0.003533648134380785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H19">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I19">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J19">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>25.28876530005</v>
+        <v>22.62033948990545</v>
       </c>
       <c r="R19">
-        <v>227.59888770045</v>
+        <v>203.583055409149</v>
       </c>
       <c r="S19">
-        <v>0.007547931862876743</v>
+        <v>0.005912098524209464</v>
       </c>
       <c r="T19">
-        <v>0.007547931862876747</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.32239</v>
-      </c>
-      <c r="I20">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J20">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>94.79985099999999</v>
-      </c>
-      <c r="N20">
-        <v>284.399553</v>
-      </c>
-      <c r="O20">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="P20">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="Q20">
-        <v>10.18750798796333</v>
-      </c>
-      <c r="R20">
-        <v>91.68757189166999</v>
-      </c>
-      <c r="S20">
-        <v>0.003040663125831128</v>
-      </c>
-      <c r="T20">
-        <v>0.003040663125831128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.32239</v>
-      </c>
-      <c r="I21">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J21">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>145.6413626666667</v>
-      </c>
-      <c r="N21">
-        <v>436.924088</v>
-      </c>
-      <c r="O21">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="P21">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="Q21">
-        <v>15.65110630336889</v>
-      </c>
-      <c r="R21">
-        <v>140.85995673032</v>
-      </c>
-      <c r="S21">
-        <v>0.004671382036838133</v>
-      </c>
-      <c r="T21">
-        <v>0.004671382036838134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.32239</v>
-      </c>
-      <c r="I22">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J22">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>72.77597066666667</v>
-      </c>
-      <c r="N22">
-        <v>218.327912</v>
-      </c>
-      <c r="O22">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="P22">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="Q22">
-        <v>7.82074839440889</v>
-      </c>
-      <c r="R22">
-        <v>70.38673554968</v>
-      </c>
-      <c r="S22">
-        <v>0.00233425694363909</v>
-      </c>
-      <c r="T22">
-        <v>0.00233425694363909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.32239</v>
-      </c>
-      <c r="I23">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J23">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>115.8358916666667</v>
-      </c>
-      <c r="N23">
-        <v>347.507675</v>
-      </c>
-      <c r="O23">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="P23">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="Q23">
-        <v>12.44811103813889</v>
-      </c>
-      <c r="R23">
-        <v>112.03299934325</v>
-      </c>
-      <c r="S23">
-        <v>0.003715384789355867</v>
-      </c>
-      <c r="T23">
-        <v>0.003715384789355867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.32239</v>
-      </c>
-      <c r="I24">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J24">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>58.18688599999999</v>
-      </c>
-      <c r="N24">
-        <v>174.560658</v>
-      </c>
-      <c r="O24">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="P24">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="Q24">
-        <v>6.252956725846667</v>
-      </c>
-      <c r="R24">
-        <v>56.27661053262</v>
-      </c>
-      <c r="S24">
-        <v>0.001866318531103382</v>
-      </c>
-      <c r="T24">
-        <v>0.001866318531103382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.32239</v>
-      </c>
-      <c r="I25">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J25">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>76.38610333333334</v>
-      </c>
-      <c r="N25">
-        <v>229.15831</v>
-      </c>
-      <c r="O25">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="P25">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="Q25">
-        <v>8.208705284544445</v>
-      </c>
-      <c r="R25">
-        <v>73.87834756090001</v>
-      </c>
-      <c r="S25">
-        <v>0.002450050345876523</v>
-      </c>
-      <c r="T25">
-        <v>0.002450050345876524</v>
+        <v>0.005912098524209466</v>
       </c>
     </row>
   </sheetData>
